--- a/immala__11380082_50vuotta_susi_lyr_0.xlsx
+++ b/immala__11380082_50vuotta_susi_lyr_0.xlsx
@@ -1,16 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentuef-my.sharepoint.com/personal/alauren_uef_fi/Documents/Susi/Immala/immala_repo/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_46FE2C99EEEDD8EEBB641D54E33525CF03D9A555" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{673D244A-E7A2-4532-B1BA-6EBDA0DBE761}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView minimized="1" xWindow="1116" yWindow="1116" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StandData" sheetId="1" r:id="rId1"/>
     <sheet name="Kertymät" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -95,8 +112,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,6 +176,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -205,7 +230,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -237,9 +262,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -271,6 +314,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -446,14 +507,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -521,7 +584,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -535,61 +598,61 @@
         <v>840</v>
       </c>
       <c r="E2">
-        <v>21.90469851148974</v>
+        <v>21.904698511489741</v>
       </c>
       <c r="F2">
         <v>19.71191939975585</v>
       </c>
       <c r="G2">
-        <v>20.61690559609084</v>
+        <v>20.616905596090842</v>
       </c>
       <c r="H2">
         <v>19.71191939975585</v>
       </c>
       <c r="I2">
-        <v>197.6388385891914</v>
+        <v>197.63883858919141</v>
       </c>
       <c r="J2">
-        <v>37.96504497528082</v>
+        <v>37.965044975280819</v>
       </c>
       <c r="K2">
-        <v>156.092638000846</v>
+        <v>156.09263800084599</v>
       </c>
       <c r="L2">
-        <v>3.581157987937331</v>
+        <v>3.5811579879373312</v>
       </c>
       <c r="M2">
-        <v>197.6388385891914</v>
+        <v>197.63883858919141</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>97.16156613081694</v>
+        <v>97.161566130816936</v>
       </c>
       <c r="P2">
-        <v>1.785571742802858</v>
+        <v>1.7855717428028579</v>
       </c>
       <c r="Q2">
         <v>12.07041851710528</v>
       </c>
       <c r="R2">
-        <v>0.8483104419428855</v>
+        <v>0.84831044194288552</v>
       </c>
       <c r="S2">
         <v>2.70170671865344</v>
       </c>
       <c r="T2">
-        <v>6.641057180240749</v>
+        <v>6.6410571802407494</v>
       </c>
       <c r="U2">
-        <v>22.56821885704992</v>
+        <v>22.568218857049921</v>
       </c>
       <c r="V2">
         <v>0.2237013151170687</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -600,25 +663,25 @@
         <v>58</v>
       </c>
       <c r="D3">
-        <v>751.1638336181642</v>
+        <v>751.16383361816418</v>
       </c>
       <c r="E3">
-        <v>22.37247476597667</v>
+        <v>22.372474765976669</v>
       </c>
       <c r="F3">
-        <v>20.8232905867634</v>
+        <v>20.823290586763399</v>
       </c>
       <c r="G3">
         <v>21.85526216919942</v>
       </c>
       <c r="H3">
-        <v>20.8232905867634</v>
+        <v>20.823290586763399</v>
       </c>
       <c r="I3">
-        <v>212.4502211397703</v>
+        <v>212.45022113977029</v>
       </c>
       <c r="J3">
-        <v>45.62685192781876</v>
+        <v>45.626851927818763</v>
       </c>
       <c r="K3">
         <v>163.668547569212</v>
@@ -627,7 +690,7 @@
         <v>3.154824642903161</v>
       </c>
       <c r="M3">
-        <v>212.4502211397703</v>
+        <v>212.45022113977029</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -636,28 +699,28 @@
         <v>105.332942729989</v>
       </c>
       <c r="P3">
-        <v>1.580804050411388</v>
+        <v>1.5808040504113881</v>
       </c>
       <c r="Q3">
         <v>12.81271314868793</v>
       </c>
       <c r="R3">
-        <v>0.8878123251401637</v>
+        <v>0.88781232514016373</v>
       </c>
       <c r="S3">
-        <v>2.630964083149966</v>
+        <v>2.6309640831499661</v>
       </c>
       <c r="T3">
-        <v>7.040013427567702</v>
+        <v>7.0400134275677022</v>
       </c>
       <c r="U3">
         <v>23.69256737346107</v>
       </c>
       <c r="V3">
-        <v>0.2415224999563776</v>
+        <v>0.24152249995637759</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -668,34 +731,34 @@
         <v>63</v>
       </c>
       <c r="D4">
-        <v>672.8388290405273</v>
+        <v>672.83882904052734</v>
       </c>
       <c r="E4">
-        <v>22.57447746312545</v>
+        <v>22.574477463125451</v>
       </c>
       <c r="F4">
-        <v>21.83650861264321</v>
+        <v>21.836508612643211</v>
       </c>
       <c r="G4">
-        <v>23.03440723228968</v>
+        <v>23.034407232289681</v>
       </c>
       <c r="H4">
-        <v>21.83650861264321</v>
+        <v>21.836508612643211</v>
       </c>
       <c r="I4">
-        <v>223.8547520568601</v>
+        <v>223.85475205686009</v>
       </c>
       <c r="J4">
-        <v>51.9690773298809</v>
+        <v>51.969077329880903</v>
       </c>
       <c r="K4">
-        <v>169.1024875743776</v>
+        <v>169.10248757437759</v>
       </c>
       <c r="L4">
         <v>2.783182893983561</v>
       </c>
       <c r="M4">
-        <v>223.8547520568601</v>
+        <v>223.85475205686009</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -707,25 +770,25 @@
         <v>1.400834455504216</v>
       </c>
       <c r="Q4">
-        <v>13.44154688675203</v>
+        <v>13.441546886752031</v>
       </c>
       <c r="R4">
-        <v>0.9146597072260692</v>
+        <v>0.91465970722606915</v>
       </c>
       <c r="S4">
         <v>2.545301389584917</v>
       </c>
       <c r="T4">
-        <v>7.348078289622656</v>
+        <v>7.3480782896226557</v>
       </c>
       <c r="U4">
-        <v>24.45956444156887</v>
+        <v>24.459564441568869</v>
       </c>
       <c r="V4">
-        <v>0.2565663800276929</v>
+        <v>0.25656638002769289</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -736,34 +799,34 @@
         <v>68</v>
       </c>
       <c r="D5">
-        <v>604.0971450805665</v>
+        <v>604.09714508056652</v>
       </c>
       <c r="E5">
-        <v>22.57397125757594</v>
+        <v>22.573971257575941</v>
       </c>
       <c r="F5">
-        <v>22.76372669066525</v>
+        <v>22.763726690665251</v>
       </c>
       <c r="G5">
-        <v>24.16105662109316</v>
+        <v>24.161056621093159</v>
       </c>
       <c r="H5">
-        <v>22.76372669066525</v>
+        <v>22.763726690665251</v>
       </c>
       <c r="I5">
-        <v>232.2602354377779</v>
+        <v>232.26023543777791</v>
       </c>
       <c r="J5">
-        <v>62.1436340098203</v>
+        <v>62.143634009820303</v>
       </c>
       <c r="K5">
-        <v>167.6530913327531</v>
+        <v>167.65309133275309</v>
       </c>
       <c r="L5">
         <v>2.463510469931907</v>
       </c>
       <c r="M5">
-        <v>232.2602354377779</v>
+        <v>232.26023543777791</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -778,22 +841,22 @@
         <v>13.97386562068921</v>
       </c>
       <c r="R5">
-        <v>0.9310743334319306</v>
+        <v>0.93107433343193058</v>
       </c>
       <c r="S5">
         <v>2.45142607920307</v>
       </c>
       <c r="T5">
-        <v>7.578087565444901</v>
+        <v>7.5780875654449007</v>
       </c>
       <c r="U5">
         <v>24.93100036604848</v>
       </c>
       <c r="V5">
-        <v>0.2691665810492723</v>
+        <v>0.26916658104927232</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -804,31 +867,31 @@
         <v>73</v>
       </c>
       <c r="D6">
-        <v>543.7215805053714</v>
+        <v>543.72158050537143</v>
       </c>
       <c r="E6">
-        <v>22.41413971609222</v>
+        <v>22.414139716092219</v>
       </c>
       <c r="F6">
-        <v>23.61518860558398</v>
+        <v>23.615188605583981</v>
       </c>
       <c r="G6">
-        <v>25.24039367781357</v>
+        <v>25.240393677813572</v>
       </c>
       <c r="H6">
-        <v>23.61518860558398</v>
+        <v>23.615188605583981</v>
       </c>
       <c r="I6">
         <v>238.0322045414301</v>
       </c>
       <c r="J6">
-        <v>65.8402537141647</v>
+        <v>65.840253714164703</v>
       </c>
       <c r="K6">
         <v>170.0026969281509</v>
       </c>
       <c r="L6">
-        <v>2.189258735842757</v>
+        <v>2.1892587358427571</v>
       </c>
       <c r="M6">
         <v>238.0322045414301</v>
@@ -846,22 +909,22 @@
         <v>14.42084923081841</v>
       </c>
       <c r="R6">
-        <v>0.9387197064276767</v>
+        <v>0.93871970642767666</v>
       </c>
       <c r="S6">
         <v>2.353364552184769</v>
       </c>
       <c r="T6">
-        <v>7.739460487637004</v>
+        <v>7.7394604876370039</v>
       </c>
       <c r="U6">
         <v>25.15423911839672</v>
       </c>
       <c r="V6">
-        <v>0.2795796979398003</v>
+        <v>0.27957969793980031</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
@@ -872,34 +935,34 @@
         <v>78</v>
       </c>
       <c r="D7">
-        <v>490.3790054321294</v>
+        <v>490.37900543212942</v>
       </c>
       <c r="E7">
-        <v>22.1206329893728</v>
+        <v>22.120632989372801</v>
       </c>
       <c r="F7">
-        <v>24.39955687532906</v>
+        <v>24.399556875329061</v>
       </c>
       <c r="G7">
-        <v>26.27662488916697</v>
+        <v>26.276624889166971</v>
       </c>
       <c r="H7">
-        <v>24.39955687532906</v>
+        <v>24.399556875329061</v>
       </c>
       <c r="I7">
-        <v>241.4010673769643</v>
+        <v>241.40106737696431</v>
       </c>
       <c r="J7">
-        <v>69.1063198285578</v>
+        <v>69.106319828557801</v>
       </c>
       <c r="K7">
-        <v>170.342363155168</v>
+        <v>170.34236315516799</v>
       </c>
       <c r="L7">
         <v>1.95238804812356</v>
       </c>
       <c r="M7">
-        <v>241.4010673769643</v>
+        <v>241.40106737696431</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -908,19 +971,19 @@
         <v>122.4170780383272</v>
       </c>
       <c r="P7">
-        <v>0.993751181329499</v>
+        <v>0.99375118132949902</v>
       </c>
       <c r="Q7">
-        <v>14.78835270685543</v>
+        <v>14.788352706855431</v>
       </c>
       <c r="R7">
-        <v>0.9386756737338789</v>
+        <v>0.93867567373387895</v>
       </c>
       <c r="S7">
-        <v>2.253275476613685</v>
+        <v>2.2532754766136849</v>
       </c>
       <c r="T7">
-        <v>7.837716136231172</v>
+        <v>7.8377161362311716</v>
       </c>
       <c r="U7">
         <v>25.16090418141615</v>
@@ -929,7 +992,7 @@
         <v>0.2879685979138949</v>
       </c>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
@@ -940,34 +1003,34 @@
         <v>83</v>
       </c>
       <c r="D8">
-        <v>442.7283458709717</v>
+        <v>442.72834587097168</v>
       </c>
       <c r="E8">
-        <v>21.70188637236673</v>
+        <v>21.701886372366729</v>
       </c>
       <c r="F8">
-        <v>25.12415452940306</v>
+        <v>25.124154529403061</v>
       </c>
       <c r="G8">
-        <v>27.27345471620661</v>
+        <v>27.273454716206611</v>
       </c>
       <c r="H8">
-        <v>25.12415452940306</v>
+        <v>25.124154529403061</v>
       </c>
       <c r="I8">
-        <v>242.4407441393298</v>
+        <v>242.44074413932981</v>
       </c>
       <c r="J8">
-        <v>70.45487461513792</v>
+        <v>70.454874615137925</v>
       </c>
       <c r="K8">
-        <v>170.2406443369339</v>
+        <v>170.24064433693391</v>
       </c>
       <c r="L8">
         <v>1.745223769165531</v>
       </c>
       <c r="M8">
-        <v>242.4407441393298</v>
+        <v>242.44074413932981</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -976,28 +1039,28 @@
         <v>123.4347331013731</v>
       </c>
       <c r="P8">
-        <v>0.891116586855862</v>
+        <v>0.89111658685586204</v>
       </c>
       <c r="Q8">
-        <v>15.07626985060062</v>
+        <v>15.076269850600619</v>
       </c>
       <c r="R8">
-        <v>0.9313693260943596</v>
+        <v>0.93136932609435963</v>
       </c>
       <c r="S8">
         <v>2.15180142942644</v>
       </c>
       <c r="T8">
-        <v>7.873547070254935</v>
+        <v>7.8735470702549346</v>
       </c>
       <c r="U8">
         <v>24.96466699591101</v>
       </c>
       <c r="V8">
-        <v>0.2943664343925939</v>
+        <v>0.29436643439259391</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1</v>
       </c>
@@ -1017,25 +1080,25 @@
         <v>25.79605993601524</v>
       </c>
       <c r="G9">
-        <v>28.23597719772279</v>
+        <v>28.235977197722789</v>
       </c>
       <c r="H9">
         <v>25.79605993601524</v>
       </c>
       <c r="I9">
-        <v>241.1534675065878</v>
+        <v>241.15346750658779</v>
       </c>
       <c r="J9">
-        <v>64.75425182149792</v>
+        <v>64.754251821497917</v>
       </c>
       <c r="K9">
         <v>174.8384115327392</v>
       </c>
       <c r="L9">
-        <v>1.560804407306566</v>
+        <v>1.5608044073065661</v>
       </c>
       <c r="M9">
-        <v>241.1534675065878</v>
+        <v>241.15346750658779</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -1044,28 +1107,28 @@
         <v>123.2192203033315</v>
       </c>
       <c r="P9">
-        <v>0.7992943974647533</v>
+        <v>0.79929439746475328</v>
       </c>
       <c r="Q9">
         <v>15.27947281683331</v>
       </c>
       <c r="R9">
-        <v>0.916692398412176</v>
+        <v>0.91669239841217598</v>
       </c>
       <c r="S9">
-        <v>2.048408644670736</v>
+        <v>2.0484086446707361</v>
       </c>
       <c r="T9">
-        <v>7.843654193499146</v>
+        <v>7.8436541934991464</v>
       </c>
       <c r="U9">
-        <v>24.56412936474946</v>
+        <v>24.564129364749459</v>
       </c>
       <c r="V9">
-        <v>0.2986579728195775</v>
+        <v>0.29865797281957751</v>
       </c>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1082,25 +1145,25 @@
         <v>20.45056086784102</v>
       </c>
       <c r="F10">
-        <v>26.42064901650473</v>
+        <v>26.420649016504729</v>
       </c>
       <c r="G10">
-        <v>29.1678609558026</v>
+        <v>29.167860955802599</v>
       </c>
       <c r="H10">
-        <v>26.42064901650473</v>
+        <v>26.420649016504729</v>
       </c>
       <c r="I10">
         <v>237.278399099826</v>
       </c>
       <c r="J10">
-        <v>62.26847119730677</v>
+        <v>62.268471197306773</v>
       </c>
       <c r="K10">
-        <v>173.6170219979906</v>
+        <v>173.61702199799061</v>
       </c>
       <c r="L10">
-        <v>1.392909120055195</v>
+        <v>1.3929091200551951</v>
       </c>
       <c r="M10">
         <v>237.278399099826</v>
@@ -1112,28 +1175,28 @@
         <v>121.633077618516</v>
       </c>
       <c r="P10">
-        <v>0.7152727213674708</v>
+        <v>0.71527272136747078</v>
       </c>
       <c r="Q10">
         <v>15.38319376677723</v>
       </c>
       <c r="R10">
-        <v>0.8937187756554577</v>
+        <v>0.89371877565545765</v>
       </c>
       <c r="S10">
         <v>1.94139697867533</v>
       </c>
       <c r="T10">
-        <v>7.737686123142088</v>
+        <v>7.7376861231420877</v>
       </c>
       <c r="U10">
-        <v>23.93588606748344</v>
+        <v>23.935886067483441</v>
       </c>
       <c r="V10">
-        <v>0.3005282494495963</v>
+        <v>0.30052824944959627</v>
       </c>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1</v>
       </c>
@@ -1144,34 +1207,34 @@
         <v>98</v>
       </c>
       <c r="D11">
-        <v>321.1618690490722</v>
+        <v>321.16186904907221</v>
       </c>
       <c r="E11">
-        <v>19.55731047156573</v>
+        <v>19.557310471565732</v>
       </c>
       <c r="F11">
-        <v>27.00196981263442</v>
+        <v>27.001969812634421</v>
       </c>
       <c r="G11">
         <v>30.07206862283206</v>
       </c>
       <c r="H11">
-        <v>27.00196981263442</v>
+        <v>27.001969812634421</v>
       </c>
       <c r="I11">
-        <v>230.3869860523909</v>
+        <v>230.38698605239091</v>
       </c>
       <c r="J11">
-        <v>59.48605585496738</v>
+        <v>59.486055854967383</v>
       </c>
       <c r="K11">
-        <v>169.6648977234127</v>
+        <v>169.66489772341271</v>
       </c>
       <c r="L11">
-        <v>1.236032833146847</v>
+        <v>1.2360328331468471</v>
       </c>
       <c r="M11">
-        <v>230.3869860523909</v>
+        <v>230.38698605239091</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -1180,28 +1243,28 @@
         <v>118.4510357440091</v>
       </c>
       <c r="P11">
-        <v>0.6363487740078189</v>
+        <v>0.63634877400781886</v>
       </c>
       <c r="Q11">
-        <v>15.36231025682804</v>
+        <v>15.362310256828041</v>
       </c>
       <c r="R11">
-        <v>0.8608728588206818</v>
+        <v>0.86087285882068176</v>
       </c>
       <c r="S11">
         <v>1.828094388500433</v>
       </c>
       <c r="T11">
-        <v>7.539345802827751</v>
+        <v>7.5393458028277509</v>
       </c>
       <c r="U11">
-        <v>23.03894682605642</v>
+        <v>23.038946826056421</v>
       </c>
       <c r="V11">
-        <v>0.2994418538816718</v>
+        <v>0.29944185388167183</v>
       </c>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1</v>
       </c>
@@ -1212,28 +1275,28 @@
         <v>103</v>
       </c>
       <c r="D12">
-        <v>283.9432926177977</v>
+        <v>283.94329261779768</v>
       </c>
       <c r="E12">
-        <v>18.42912448927435</v>
+        <v>18.429124489274351</v>
       </c>
       <c r="F12">
-        <v>27.54333542594721</v>
+        <v>27.543335425947209</v>
       </c>
       <c r="G12">
-        <v>30.95192934344943</v>
+        <v>30.951929343449429</v>
       </c>
       <c r="H12">
-        <v>27.54333542594721</v>
+        <v>27.543335425947209</v>
       </c>
       <c r="I12">
         <v>219.9425803013265</v>
       </c>
       <c r="J12">
-        <v>55.21485298415458</v>
+        <v>55.214852984154582</v>
       </c>
       <c r="K12">
-        <v>163.6421276165777</v>
+        <v>163.64212761657771</v>
       </c>
       <c r="L12">
         <v>1.085601500966227</v>
@@ -1248,25 +1311,25 @@
         <v>113.3902221830452</v>
       </c>
       <c r="P12">
-        <v>0.5602562054089579</v>
+        <v>0.56025620540895793</v>
       </c>
       <c r="Q12">
-        <v>15.18109555559434</v>
+        <v>15.181095555594339</v>
       </c>
       <c r="R12">
-        <v>0.8162550349688475</v>
+        <v>0.81625503496884755</v>
       </c>
       <c r="S12">
-        <v>1.705085257201871</v>
+        <v>1.7050852572018711</v>
       </c>
       <c r="T12">
-        <v>7.229018770287642</v>
+        <v>7.2290187702876416</v>
       </c>
       <c r="U12">
-        <v>21.82345936921053</v>
+        <v>21.823459369210529</v>
       </c>
       <c r="V12">
-        <v>0.2946387195191441</v>
+        <v>0.29463871951914411</v>
       </c>
     </row>
   </sheetData>
@@ -1275,14 +1338,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1296,7 +1359,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
